--- a/imageCreationExcel/back/108/108_10.xlsx
+++ b/imageCreationExcel/back/108/108_10.xlsx
@@ -486,39 +486,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.070547712164608</v>
+        <v>10.50778612639148</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.2739242751444327</v>
+        <v>0.8110278166161385</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>13.14973914781751</v>
+        <v>0.3418002043503175</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_0_contrast1.071_sharpness0.274_equalization13.15.jpg</t>
+          <t>1_P_brightness10.508_contrast0.811_sharpness0.342.jpg</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.057567337277131</v>
+        <v>1.142379148132602</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.1235956971132458</v>
+        <v>0.04791704208032952</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -553,14 +553,14 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>22.62278066677876</v>
+        <v>18.63435103157859</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_9_contrast1.058_sharpness0.124_equalization22.623.jpg</t>
+          <t>2_B_contrast1.142_sharpness0.048_equalization18.634.jpg</t>
         </is>
       </c>
     </row>
@@ -570,39 +570,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>8.642803746649964</v>
+        <v>0.8593734751175823</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.8371797665939013</v>
+        <v>0.9338215639809411</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.5468576502815301</v>
+        <v>0.7717108106563271</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_3_brightness8.643_contrast0.837_gamma0.547.jpg</t>
+          <t>3_2_contrast0.859_gamma0.934_sharpness0.772.jpg</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>29.05484958986769</v>
+        <v>13.39592900030701</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.9319853678060107</v>
+        <v>1.182292762093187</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -637,14 +637,14 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.5602385686638758</v>
+        <v>0.8578376226270721</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_I_brightness29.055_contrast0.932_gamma0.56.jpg</t>
+          <t>4_2_brightness13.396_contrast1.182_gamma0.858.jpg</t>
         </is>
       </c>
     </row>
@@ -654,39 +654,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.149176666976317</v>
+        <v>3.269654248080204</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.7900331802269063</v>
+        <v>0.5454060417149673</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>14.43329571628247</v>
+        <v>0.9119036342572986</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_2_contrast1.149_sharpness0.79_equalization14.433.jpg</t>
+          <t>5_S_brightness3.27_gamma0.545_sharpness0.912.jpg</t>
         </is>
       </c>
     </row>
@@ -696,39 +696,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>17.18567102932877</v>
+        <v>0.5625705357388027</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.8720121776540661</v>
+        <v>0.4382059816880673</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.4468572976366915</v>
+        <v>4.996296105295152</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_3_brightness17.186_contrast0.872_sharpness0.447.jpg</t>
+          <t>6_8_gamma0.563_sharpness0.438_equalization4.996.jpg</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -747,15 +747,15 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.8072431586436868</v>
+        <v>1.08070216705698</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.6950118513229624</v>
+        <v>0.8822602468660321</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -763,14 +763,14 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>27.87378798644882</v>
+        <v>20.11137596394764</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_S_contrast0.807_gamma0.695_equalization27.874.jpg</t>
+          <t>7_8_contrast1.081_sharpness0.882_equalization20.111.jpg</t>
         </is>
       </c>
     </row>
@@ -780,39 +780,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>17.73432017686703</v>
+        <v>1.188148025282634</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.116500192611615</v>
+        <v>0.6028572512036812</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.8655791428568889</v>
+        <v>13.42508391099187</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_I_brightness17.734_contrast1.117_gamma0.866.jpg</t>
+          <t>8_9_contrast1.188_gamma0.603_equalization13.425.jpg</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.693177769499356</v>
+        <v>6.404383921670012</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.8690792914063248</v>
+        <v>1.118886311740908</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -847,14 +847,14 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.5938105594997668</v>
+        <v>0.9661199590609812</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_0_brightness1.693_contrast0.869_gamma0.594.jpg</t>
+          <t>9_E_brightness6.404_contrast1.119_gamma0.966.jpg</t>
         </is>
       </c>
     </row>
@@ -864,16 +864,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>8.077817664858516</v>
+        <v>0.9751039215150689</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.081273888952238</v>
+        <v>0.5813663972120895</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -889,14 +889,14 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.9954138285573279</v>
+        <v>0.2047274143788915</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_2_brightness8.078_gamma1.081_sharpness0.995.jpg</t>
+          <t>10_8_contrast0.975_gamma0.581_sharpness0.205.jpg</t>
         </is>
       </c>
     </row>
@@ -911,34 +911,34 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>24.53863002282739</v>
+        <v>0.8147229177807918</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.076647764212694</v>
+        <v>0.9262835500869118</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.180597231732295</v>
+        <v>11.67684352127977</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_2_brightness24.539_contrast1.077_sharpness0.181.jpg</t>
+          <t>11_2_gamma0.815_sharpness0.926_equalization11.677.jpg</t>
         </is>
       </c>
     </row>
@@ -948,39 +948,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>16.46370599492914</v>
+        <v>1.044349990501619</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.007282411659552</v>
+        <v>0.757635046921338</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1.0681873680144</v>
+        <v>0.6613123936769623</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_0_brightness16.464_contrast1.007_gamma1.068.jpg</t>
+          <t>12_P_contrast1.044_gamma0.758_sharpness0.661.jpg</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -999,30 +999,30 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.9493932921442678</v>
+        <v>0.9188256754106883</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.007715408542014</v>
+        <v>0.6024898444596303</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.8754680488384794</v>
+        <v>29.43836819699357</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_0_contrast0.949_gamma1.008_sharpness0.875.jpg</t>
+          <t>13_P_contrast0.919_sharpness0.602_equalization29.438.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.067691792202633</v>
+        <v>1.040633596255295</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1049,22 +1049,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.8022155096265663</v>
+        <v>1.072827548035054</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.04399838912116524</v>
+        <v>25.13506159028966</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_2_contrast1.068_gamma0.802_sharpness0.044.jpg</t>
+          <t>14_E_contrast1.041_gamma1.073_equalization25.135.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,39 +1074,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>22.37206638013687</v>
+        <v>0.8009063203592747</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.5159012425159895</v>
+        <v>0.206045109730751</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.08721105107767177</v>
+        <v>5.774102251929898</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_1_brightness22.372_gamma0.516_sharpness0.087.jpg</t>
+          <t>15_0_contrast0.801_sharpness0.206_equalization5.774.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,16 +1116,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>20.13141239477277</v>
+        <v>0.8123633222639399</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.8684788227626254</v>
+        <v>0.5714891889471566</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1141,14 +1141,14 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.9297881457662072</v>
+        <v>0.3424930524123835</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_B_brightness20.131_gamma0.868_sharpness0.93.jpg</t>
+          <t>16_I_contrast0.812_gamma0.571_sharpness0.342.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,39 +1158,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.066022910011803</v>
+        <v>9.565000789896567</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.081771374208676</v>
+        <v>0.8746668508921766</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.226387494217704</v>
+        <v>0.8433422033156419</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_0_contrast1.066_gamma1.082_sharpness0.226.jpg</t>
+          <t>17_7_brightness9.565_contrast0.875_gamma0.843.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,16 +1200,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.2205447965367602</v>
+        <v>0.814911600340243</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.6396765929212843</v>
+        <v>0.9745942149407469</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1225,14 +1225,14 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.6851689255931541</v>
+        <v>0.9337173063536838</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_3_brightness0.221_gamma0.64_sharpness0.685.jpg</t>
+          <t>18_7_contrast0.815_gamma0.975_sharpness0.934.jpg</t>
         </is>
       </c>
     </row>
@@ -1247,34 +1247,34 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.050493447587833</v>
+        <v>20.20590883977042</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.7907544272000462</v>
+        <v>1.065497080548202</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>4.791735327870515</v>
+        <v>0.7685430285385526</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_I_contrast1.05_sharpness0.791_equalization4.792.jpg</t>
+          <t>19_I_brightness20.206_contrast1.065_sharpness0.769.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,39 +1284,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.5669351424042808</v>
+        <v>3.852280328701712</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.9696061329857615</v>
+        <v>0.8632096412065338</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>20.87977453771222</v>
+        <v>0.8192036572463403</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_3_gamma0.567_sharpness0.97_equalization20.88.jpg</t>
+          <t>20_S_brightness3.852_gamma0.863_sharpness0.819.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,24 +1326,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.5925569203732556</v>
+        <v>1.121727482485114</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.07632531116708426</v>
+        <v>0.8859541756224171</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1351,14 +1351,14 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>23.63871068938144</v>
+        <v>19.34942536120596</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_C_gamma0.593_sharpness0.076_equalization23.639.jpg</t>
+          <t>21_8_contrast1.122_gamma0.886_equalization19.349.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,16 +1368,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.940613758157934</v>
+        <v>28.34261132317937</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.6712652639496025</v>
+        <v>0.7380531619358585</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1393,14 +1393,14 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.9716194160886169</v>
+        <v>0.1013002113277716</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_C_contrast0.941_gamma0.671_sharpness0.972.jpg</t>
+          <t>22_2_brightness28.343_gamma0.738_sharpness0.101.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1419,15 +1419,15 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.9017145628719808</v>
+        <v>1.017489776753099</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.5020089236675713</v>
+        <v>0.7672275580387621</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1435,14 +1435,14 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>20.44028058797098</v>
+        <v>14.05008510419431</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_7_contrast0.902_sharpness0.502_equalization20.44.jpg</t>
+          <t>23_B_contrast1.017_gamma0.767_equalization14.05.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1461,15 +1461,15 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.9102330032401705</v>
+        <v>0.9193353534986234</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.8512714478279836</v>
+        <v>0.07317262115916252</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1477,14 +1477,14 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>25.82875102529569</v>
+        <v>24.04550713583069</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_I_contrast0.91_gamma0.851_equalization25.829.jpg</t>
+          <t>24_B_contrast0.919_sharpness0.073_equalization24.046.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1503,15 +1503,15 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>13.70937458327796</v>
+        <v>7.838142739960623</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.079910273083077</v>
+        <v>1.019804354942017</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1519,14 +1519,14 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.6452801065687988</v>
+        <v>0.9871133994257787</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_7_brightness13.709_contrast1.08_sharpness0.645.jpg</t>
+          <t>25_P_brightness7.838_gamma1.02_sharpness0.987.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,16 +1536,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>12.32480554642645</v>
+        <v>1.020985278987664</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1553,22 +1553,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.098718593724248</v>
+        <v>0.7902898950297903</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.7386862895517028</v>
+        <v>6.370279244858817</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_T_brightness12.325_gamma1.099_sharpness0.739.jpg</t>
+          <t>26_C_contrast1.021_gamma0.79_equalization6.37.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1587,15 +1587,15 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.9689287666710217</v>
+        <v>0.8325187139653166</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.7999101032894335</v>
+        <v>0.8529408938713073</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1603,14 +1603,14 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>16.17282070264267</v>
+        <v>14.58380997780303</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_7_contrast0.969_gamma0.8_equalization16.173.jpg</t>
+          <t>27_2_contrast0.833_sharpness0.853_equalization14.584.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,16 +1620,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.7790967170426253</v>
+        <v>1.099812915559506</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.5464089309815326</v>
+        <v>0.4338497869350271</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1645,14 +1645,14 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>18.3226260833527</v>
+        <v>24.43030886521723</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_3_gamma0.779_sharpness0.546_equalization18.323.jpg</t>
+          <t>28_0_contrast1.1_sharpness0.434_equalization24.43.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.9108997350581135</v>
+        <v>0.9900886397857039</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.6112343420748484</v>
+        <v>0.5255684735608712</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>20.06433512510534</v>
+        <v>0.8761576804049618</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_3_contrast0.911_gamma0.611_equalization20.064.jpg</t>
+          <t>29_7_contrast0.99_gamma0.526_sharpness0.876.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,39 +1704,39 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>29.66197034463516</v>
+        <v>1.013309038401701</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.137456203221752</v>
+        <v>0.4862321983565996</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.0234507025053519</v>
+        <v>31.1796076105333</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_I_brightness29.662_contrast1.137_sharpness0.023.jpg</t>
+          <t>30_9_gamma1.013_sharpness0.486_equalization31.18.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,39 +1746,39 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>16.66029358259915</v>
+        <v>0.957597920155478</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.089275885557296</v>
+        <v>0.08446582588728929</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.5893496001838044</v>
+        <v>25.68759354453973</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_E_brightness16.66_contrast1.089_gamma0.589.jpg</t>
+          <t>31_S_contrast0.958_sharpness0.084_equalization25.688.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,16 +1788,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2.565095838080801</v>
+        <v>0.9767949507802776</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.5489345106891783</v>
+        <v>0.614465583258058</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1813,14 +1813,14 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.5553730497759031</v>
+        <v>0.01082442877502552</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_E_brightness2.565_gamma0.549_sharpness0.555.jpg</t>
+          <t>32_2_contrast0.977_gamma0.614_sharpness0.011.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,39 +1830,39 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.1096890235917225</v>
+        <v>1.18250691664552</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.127538409968451</v>
+        <v>0.8031649441992428</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.9702042256110784</v>
+        <v>14.08019055342975</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_E_brightness0.11_contrast1.128_sharpness0.97.jpg</t>
+          <t>33_S_contrast1.183_sharpness0.803_equalization14.08.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,39 +1872,39 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.8812748352260448</v>
+        <v>1.088818202618689</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.6168080766981971</v>
+        <v>1.02573229729647</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>20.51190032226217</v>
+        <v>0.3751345087123331</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_7_gamma0.881_sharpness0.617_equalization20.512.jpg</t>
+          <t>34_I_contrast1.089_gamma1.026_sharpness0.375.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,16 +1914,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.185990287589125</v>
+        <v>14.27752099165968</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.8244876991620778</v>
+        <v>0.836836793023778</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1939,14 +1939,14 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.7231024824223422</v>
+        <v>0.4705890917921167</v>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_T_contrast1.186_gamma0.824_sharpness0.723.jpg</t>
+          <t>35_0_brightness14.278_gamma0.837_sharpness0.471.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1965,15 +1965,15 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.9764104565874155</v>
+        <v>1.159831265034925</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.2121696789073343</v>
+        <v>0.8547773085526453</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1981,14 +1981,14 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>9.657828868479452</v>
+        <v>14.10857475044481</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_3_contrast0.976_sharpness0.212_equalization9.658.jpg</t>
+          <t>36_1_contrast1.16_gamma0.855_equalization14.109.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2007,15 +2007,15 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1.048384937369674</v>
+        <v>0.8468480794657075</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.9964555818971772</v>
+        <v>0.5221507106316502</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2023,14 +2023,14 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>15.32563028367978</v>
+        <v>26.26444255384763</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_P_contrast1.048_sharpness0.996_equalization15.326.jpg</t>
+          <t>37_3_contrast0.847_gamma0.522_equalization26.264.jpg</t>
         </is>
       </c>
     </row>
@@ -2045,11 +2045,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.8935101330097766</v>
+        <v>1.078871788086837</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.07736151826426298</v>
+        <v>0.7517453635289904</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2065,14 +2065,14 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>16.41160854845896</v>
+        <v>29.19107977444505</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_B_contrast0.894_sharpness0.077_equalization16.412.jpg</t>
+          <t>38_B_gamma1.079_sharpness0.752_equalization29.191.jpg</t>
         </is>
       </c>
     </row>
@@ -2087,34 +2087,34 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>29.29527967467933</v>
+        <v>0.9480987765214469</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.175311771404741</v>
+        <v>0.2021991154305542</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.7015862373739095</v>
+        <v>18.84768148647034</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_E_brightness29.295_contrast1.175_sharpness0.702.jpg</t>
+          <t>39_E_contrast0.948_sharpness0.202_equalization18.848.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,16 +2124,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.017051361006013</v>
+        <v>4.775226210777887</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.585984542224368</v>
+        <v>0.7248834109840336</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2149,14 +2149,14 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.03587764358295007</v>
+        <v>0.9315056455504733</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_8_contrast1.017_gamma0.586_sharpness0.036.jpg</t>
+          <t>40_C_brightness4.775_gamma0.725_sharpness0.932.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2175,15 +2175,15 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>14.06746972229949</v>
+        <v>20.83345310747919</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.077599129837925</v>
+        <v>0.7618483754097823</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2191,14 +2191,14 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.6378390996204852</v>
+        <v>0.7618753957019733</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_P_brightness14.067_contrast1.078_sharpness0.638.jpg</t>
+          <t>41_7_brightness20.833_gamma0.762_sharpness0.762.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.8921415895310612</v>
+        <v>0.8642351071983172</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.4783066923911002</v>
+        <v>0.9496684052848764</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2233,14 +2233,14 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>21.29242440925607</v>
+        <v>17.27025272591846</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_B_gamma0.892_sharpness0.478_equalization21.292.jpg</t>
+          <t>42_E_gamma0.864_sharpness0.95_equalization17.27.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,39 +2250,39 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1.13140031212032</v>
+        <v>0.5169312566467441</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.8891005220220165</v>
+        <v>0.09929730501843892</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.2858684519745519</v>
+        <v>24.25068886110411</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_0_contrast1.131_gamma0.889_sharpness0.286.jpg</t>
+          <t>43_3_gamma0.517_sharpness0.099_equalization24.251.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,24 +2292,24 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>13.88051223393598</v>
+        <v>0.9301020828405856</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.8240168584674091</v>
+        <v>0.5818251018869872</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2317,14 +2317,14 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.4251509139715756</v>
+        <v>0.9563894241512949</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_S_brightness13.881_contrast0.824_sharpness0.425.jpg</t>
+          <t>44_0_contrast0.93_gamma0.582_sharpness0.956.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,16 +2334,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>26.66713897326109</v>
+        <v>1.176415672568848</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2351,22 +2351,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.6482003789474906</v>
+        <v>0.5825669076138116</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0.8680101147204163</v>
+        <v>28.06802876611965</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_P_brightness26.667_gamma0.648_sharpness0.868.jpg</t>
+          <t>45_3_contrast1.176_gamma0.583_equalization28.068.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,39 +2376,39 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.9845812561215977</v>
+        <v>21.60235769585955</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.5908091516614233</v>
+        <v>1.189900753753202</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>14.27732896158331</v>
+        <v>0.803351459521071</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_2_contrast0.985_gamma0.591_equalization14.277.jpg</t>
+          <t>46_T_brightness21.602_contrast1.19_sharpness0.803.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,39 +2418,39 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>17.89432327689095</v>
+        <v>0.6777372171127867</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.8794700989737072</v>
+        <v>0.6074461062266818</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0.1218361874173408</v>
+        <v>4.285270015674637</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_1_brightness17.894_contrast0.879_sharpness0.122.jpg</t>
+          <t>47_2_gamma0.678_sharpness0.607_equalization4.285.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2469,7 +2469,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>22.07559302474852</v>
+        <v>26.98665713968157</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.017258704764575</v>
+        <v>1.112390507432405</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2485,14 +2485,14 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.5490306805328619</v>
+        <v>0.03572492466690994</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_E_brightness22.076_contrast1.017_sharpness0.549.jpg</t>
+          <t>48_7_brightness26.987_contrast1.112_sharpness0.036.jpg</t>
         </is>
       </c>
     </row>
